--- a/2/1/UF-IVP-UTM mensual 1977 a 2021 - Mensual.xlsx
+++ b/2/1/UF-IVP-UTM mensual 1977 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
   <si>
     <t>Serie</t>
   </si>
@@ -1613,6 +1613,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1973,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D530"/>
+  <dimension ref="A1:D531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8492,8 +8495,22 @@
       <c r="A530" t="s">
         <v>532</v>
       </c>
+      <c r="B530">
+        <v>29827.73</v>
+      </c>
+      <c r="C530">
+        <v>31022.45</v>
+      </c>
       <c r="D530">
         <v>52213</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" t="s">
+        <v>533</v>
+      </c>
+      <c r="D531">
+        <v>52631</v>
       </c>
     </row>
   </sheetData>

--- a/2/1/UF-IVP-UTM mensual 1977 a 2021 - Mensual.xlsx
+++ b/2/1/UF-IVP-UTM mensual 1977 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="535">
   <si>
     <t>Serie</t>
   </si>
@@ -1616,6 +1616,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1973,7 +1976,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D531"/>
+  <dimension ref="A1:D532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8509,8 +8512,22 @@
       <c r="A531" t="s">
         <v>533</v>
       </c>
+      <c r="B531">
+        <v>30025.93</v>
+      </c>
+      <c r="C531">
+        <v>31133.43</v>
+      </c>
       <c r="D531">
         <v>52631</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" t="s">
+        <v>534</v>
+      </c>
+      <c r="D532">
+        <v>52842</v>
       </c>
     </row>
   </sheetData>

--- a/2/1/UF-IVP-UTM mensual 1977 a 2021 - Mensual.xlsx
+++ b/2/1/UF-IVP-UTM mensual 1977 a 2021 - Mensual.xlsx
@@ -8526,6 +8526,12 @@
       <c r="A532" t="s">
         <v>534</v>
       </c>
+      <c r="B532">
+        <v>30214.65</v>
+      </c>
+      <c r="C532">
+        <v>31261.31</v>
+      </c>
       <c r="D532">
         <v>52842</v>
       </c>

--- a/2/1/UF-IVP-UTM mensual 1977 a 2021 - Mensual.xlsx
+++ b/2/1/UF-IVP-UTM mensual 1977 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
   <si>
     <t>Serie</t>
   </si>
@@ -1619,6 +1619,9 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>01-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1979,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D532"/>
+  <dimension ref="A1:D533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8536,6 +8539,14 @@
         <v>52842</v>
       </c>
     </row>
+    <row r="533" spans="1:4">
+      <c r="A533" t="s">
+        <v>535</v>
+      </c>
+      <c r="D533">
+        <v>53476</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/1/UF-IVP-UTM mensual 1977 a 2021 - Mensual.xlsx
+++ b/2/1/UF-IVP-UTM mensual 1977 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
   <si>
     <t>Serie</t>
   </si>
@@ -1622,6 +1622,9 @@
   </si>
   <si>
     <t>01-11-2021</t>
+  </si>
+  <si>
+    <t>01-12-2021</t>
   </si>
 </sst>
 </file>
@@ -1979,7 +1982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D533"/>
+  <dimension ref="A1:D534"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8547,6 +8550,14 @@
         <v>53476</v>
       </c>
     </row>
+    <row r="534" spans="1:4">
+      <c r="A534" t="s">
+        <v>536</v>
+      </c>
+      <c r="D534">
+        <v>54171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
